--- a/www.eia.gov/forecasts/steo/xls/Fig12.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig12.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>OECD Commercial Stocks of Crude Oil and Other Liquids</t>
@@ -56,7 +56,7 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note:  Colored band around days of supply of crude oil and other liquids stocks represents the range between the minimum and maximum from Jan. 2012 - Dec. 2016.</t>
@@ -551,256 +551,256 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,256 +1091,256 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.332199580000001</c:v>
+                  <c:v>8.3885238149999992</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6224255969999959</c:v>
+                  <c:v>7.6772099360000041</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.1630591420000016</c:v>
+                  <c:v>8.2104457160000024</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.1633401039999995</c:v>
+                  <c:v>8.2815482380000063</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.294911871999993</c:v>
+                  <c:v>7.4423268829999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.8692147649999953</c:v>
+                  <c:v>9.0373925660000083</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.1730651549999962</c:v>
+                  <c:v>7.2592278629999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.5996817479999947</c:v>
+                  <c:v>7.3354240840000031</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.0040683830000035</c:v>
+                  <c:v>8.0975177080000051</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.5953824560000101</c:v>
+                  <c:v>9.5077595599999967</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.8462150569999949</c:v>
+                  <c:v>10.016171677999992</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.60991315199999</c:v>
+                  <c:v>11.024513528000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,8 +1354,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446174384"/>
-        <c:axId val="446174944"/>
+        <c:axId val="305436080"/>
+        <c:axId val="305436640"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1644,256 +1644,256 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>55.423987791000002</c:v>
+                  <c:v>55.420405416000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.32778682</c:v>
+                  <c:v>57.321964461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.736331839999998</c:v>
+                  <c:v>58.732665623999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.300099748999997</c:v>
+                  <c:v>58.300678214000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.963218824999998</c:v>
+                  <c:v>57.958017028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.027716251999998</c:v>
+                  <c:v>58.020602036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.816031787999997</c:v>
+                  <c:v>57.809475139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.795496497000002</c:v>
+                  <c:v>59.787912444</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.277416475999999</c:v>
+                  <c:v>58.270593492000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.486884387000003</c:v>
+                  <c:v>57.480771902000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.014264038</c:v>
+                  <c:v>58.008782185000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.582879443000003</c:v>
+                  <c:v>57.577133644</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.879203527999998</c:v>
+                  <c:v>56.873122477999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.115561388000003</c:v>
+                  <c:v>58.101152697000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.464447479</c:v>
+                  <c:v>57.448209898999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.038477231999998</c:v>
+                  <c:v>58.027573347999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.861926707000002</c:v>
+                  <c:v>57.848895212999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.232392965000003</c:v>
+                  <c:v>56.218362913999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.14811486</c:v>
+                  <c:v>57.132714411000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57.615733198000001</c:v>
+                  <c:v>57.606513771000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.525133373000003</c:v>
+                  <c:v>57.511781839000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.031841178999997</c:v>
+                  <c:v>56.023523277999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.884629064999999</c:v>
+                  <c:v>55.874523170000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.707364748000003</c:v>
+                  <c:v>55.817292010999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.663631402</c:v>
+                  <c:v>54.764239498000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.202044712000003</c:v>
+                  <c:v>56.301411954999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.698923372000003</c:v>
+                  <c:v>56.79769855</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.998471504999998</c:v>
+                  <c:v>58.109563917000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.388667114</c:v>
+                  <c:v>58.500242866999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56.853039623000001</c:v>
+                  <c:v>56.956333358000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57.844219471000002</c:v>
+                  <c:v>57.947114095000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.461823013</c:v>
+                  <c:v>58.569783803</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.107170345</c:v>
+                  <c:v>58.211917546999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.703204956</c:v>
+                  <c:v>58.809933411999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.954445775000003</c:v>
+                  <c:v>57.055144063999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.717231517000002</c:v>
+                  <c:v>58.861093695999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>56.771582940999998</c:v>
+                  <c:v>56.889893022000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.679366041999998</c:v>
+                  <c:v>58.816094106000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>60.321400116</c:v>
+                  <c:v>60.475135344999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62.770663919999997</c:v>
+                  <c:v>62.874877918999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.649208901000002</c:v>
+                  <c:v>61.759057009999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60.648533321999999</c:v>
+                  <c:v>60.744841897999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.180503836</c:v>
+                  <c:v>61.273971907000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.688120238000003</c:v>
+                  <c:v>62.751916825999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>63.459426278999999</c:v>
+                  <c:v>63.565273560000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>64.251995704999999</c:v>
+                  <c:v>64.349900727000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.348884826999999</c:v>
+                  <c:v>62.439604031000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65.153312955000004</c:v>
+                  <c:v>65.327004078000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.995830982000001</c:v>
+                  <c:v>63.152763313000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.824470308999999</c:v>
+                  <c:v>63.978621891000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64.861982514000005</c:v>
+                  <c:v>65.008144266000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>66.161811608999997</c:v>
+                  <c:v>66.309121586000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65.156838578999995</c:v>
+                  <c:v>65.291222095999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>65.101607729999998</c:v>
+                  <c:v>65.255755480000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.321180014999996</c:v>
+                  <c:v>64.391942274000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>65.215414945999996</c:v>
+                  <c:v>64.941937855000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>65.529201756000006</c:v>
+                  <c:v>65.609299547000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.627223635000007</c:v>
+                  <c:v>65.531282837999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>65.730844121999993</c:v>
+                  <c:v>65.890694847999995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>66.317277899999993</c:v>
+                  <c:v>66.841805539000006</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>65.321730157999994</c:v>
+                  <c:v>65.038697618</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.800783005</c:v>
+                  <c:v>65.304211633999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.048331809999993</c:v>
+                  <c:v>66.437287592999994</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>68.108946708000005</c:v>
+                  <c:v>67.317534686000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66.884797376999998</c:v>
+                  <c:v>65.983050982999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66.448546984000004</c:v>
+                  <c:v>65.392585119000003</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66.461105879000002</c:v>
+                  <c:v>65.393831363000004</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>65.677724832999999</c:v>
+                  <c:v>64.690707630999995</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>66.438473578</c:v>
+                  <c:v>65.441792352999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>66.210137884000005</c:v>
+                  <c:v>65.146349158999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>65.683196073999994</c:v>
+                  <c:v>64.597156538999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>66.446502983000002</c:v>
+                  <c:v>65.414323115000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65.538389031999998</c:v>
+                  <c:v>64.236738763000005</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>66.088064861000007</c:v>
+                  <c:v>64.780257489999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>67.345070277000005</c:v>
+                  <c:v>65.962352222000007</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>68.432107907000002</c:v>
+                  <c:v>67.133571700999994</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>67.172382302000003</c:v>
+                  <c:v>65.994690422000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>66.870846361000005</c:v>
+                  <c:v>65.692663107000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>66.843834170999997</c:v>
+                  <c:v>65.770206099000006</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>66.122215455000003</c:v>
+                  <c:v>65.205040522000004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>66.766380544</c:v>
+                  <c:v>65.964337286000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>66.529702036000003</c:v>
+                  <c:v>65.717863774999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>65.860600720999997</c:v>
+                  <c:v>65.052524863000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>66.623907630000005</c:v>
+                  <c:v>65.869691438999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,8 +1910,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446174384"/>
-        <c:axId val="446174944"/>
+        <c:axId val="305436080"/>
+        <c:axId val="305436640"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1997,10 +1997,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,11 +2030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446176064"/>
-        <c:axId val="446176624"/>
+        <c:axId val="305437200"/>
+        <c:axId val="305437760"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446174384"/>
+        <c:axId val="305436080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2051,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446174944"/>
+        <c:crossAx val="305436640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2062,7 +2062,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446174944"/>
+        <c:axId val="305436640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2090,12 +2090,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446174384"/>
+        <c:crossAx val="305436080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446176064"/>
+        <c:axId val="305437200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="84"/>
@@ -2112,12 +2112,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446176624"/>
+        <c:crossAx val="305437760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446176624"/>
+        <c:axId val="305437760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2134,7 +2134,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446176064"/>
+        <c:crossAx val="305437200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,7 +2295,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2402,13 +2402,13 @@
             <v>40909</v>
           </cell>
           <cell r="B29">
-            <v>55.423987791000002</v>
+            <v>55.420405416000001</v>
           </cell>
           <cell r="C29">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E29">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="30">
@@ -2416,13 +2416,13 @@
             <v>40940</v>
           </cell>
           <cell r="B30">
-            <v>57.32778682</v>
+            <v>57.321964461</v>
           </cell>
           <cell r="C30">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E30">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="31">
@@ -2430,13 +2430,13 @@
             <v>40969</v>
           </cell>
           <cell r="B31">
-            <v>58.736331839999998</v>
+            <v>58.732665623999999</v>
           </cell>
           <cell r="C31">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E31">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="32">
@@ -2444,13 +2444,13 @@
             <v>41000</v>
           </cell>
           <cell r="B32">
-            <v>58.300099748999997</v>
+            <v>58.300678214000001</v>
           </cell>
           <cell r="C32">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E32">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="33">
@@ -2458,13 +2458,13 @@
             <v>41030</v>
           </cell>
           <cell r="B33">
-            <v>57.963218824999998</v>
+            <v>57.958017028</v>
           </cell>
           <cell r="C33">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E33">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="34">
@@ -2472,13 +2472,13 @@
             <v>41061</v>
           </cell>
           <cell r="B34">
-            <v>58.027716251999998</v>
+            <v>58.020602036</v>
           </cell>
           <cell r="C34">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E34">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="35">
@@ -2486,13 +2486,13 @@
             <v>41091</v>
           </cell>
           <cell r="B35">
-            <v>57.816031787999997</v>
+            <v>57.809475139</v>
           </cell>
           <cell r="C35">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E35">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="36">
@@ -2500,13 +2500,13 @@
             <v>41122</v>
           </cell>
           <cell r="B36">
-            <v>59.795496497000002</v>
+            <v>59.787912444</v>
           </cell>
           <cell r="C36">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E36">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="37">
@@ -2514,13 +2514,13 @@
             <v>41153</v>
           </cell>
           <cell r="B37">
-            <v>58.277416475999999</v>
+            <v>58.270593492000003</v>
           </cell>
           <cell r="C37">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E37">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="38">
@@ -2528,13 +2528,13 @@
             <v>41183</v>
           </cell>
           <cell r="B38">
-            <v>57.486884387000003</v>
+            <v>57.480771902000001</v>
           </cell>
           <cell r="C38">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E38">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="39">
@@ -2542,13 +2542,13 @@
             <v>41214</v>
           </cell>
           <cell r="B39">
-            <v>58.014264038</v>
+            <v>58.008782185000001</v>
           </cell>
           <cell r="C39">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E39">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="40">
@@ -2556,13 +2556,13 @@
             <v>41244</v>
           </cell>
           <cell r="B40">
-            <v>57.582879443000003</v>
+            <v>57.577133644</v>
           </cell>
           <cell r="C40">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E40">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="41">
@@ -2570,13 +2570,13 @@
             <v>41275</v>
           </cell>
           <cell r="B41">
-            <v>56.879203527999998</v>
+            <v>56.873122477999999</v>
           </cell>
           <cell r="C41">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E41">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="42">
@@ -2584,13 +2584,13 @@
             <v>41306</v>
           </cell>
           <cell r="B42">
-            <v>58.115561388000003</v>
+            <v>58.101152697000003</v>
           </cell>
           <cell r="C42">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E42">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="43">
@@ -2598,13 +2598,13 @@
             <v>41334</v>
           </cell>
           <cell r="B43">
-            <v>57.464447479</v>
+            <v>57.448209898999998</v>
           </cell>
           <cell r="C43">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E43">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="44">
@@ -2612,13 +2612,13 @@
             <v>41365</v>
           </cell>
           <cell r="B44">
-            <v>58.038477231999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="C44">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E44">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="45">
@@ -2626,13 +2626,13 @@
             <v>41395</v>
           </cell>
           <cell r="B45">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="C45">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E45">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="46">
@@ -2640,13 +2640,13 @@
             <v>41426</v>
           </cell>
           <cell r="B46">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="C46">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E46">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="47">
@@ -2654,13 +2654,13 @@
             <v>41456</v>
           </cell>
           <cell r="B47">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="C47">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E47">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="48">
@@ -2668,13 +2668,13 @@
             <v>41487</v>
           </cell>
           <cell r="B48">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="C48">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E48">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="49">
@@ -2682,13 +2682,13 @@
             <v>41518</v>
           </cell>
           <cell r="B49">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="C49">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E49">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="50">
@@ -2696,13 +2696,13 @@
             <v>41548</v>
           </cell>
           <cell r="B50">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="C50">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E50">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="51">
@@ -2710,13 +2710,13 @@
             <v>41579</v>
           </cell>
           <cell r="B51">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="C51">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E51">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="52">
@@ -2724,13 +2724,13 @@
             <v>41609</v>
           </cell>
           <cell r="B52">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="C52">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E52">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="53">
@@ -2738,13 +2738,13 @@
             <v>41640</v>
           </cell>
           <cell r="B53">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="C53">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E53">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="54">
@@ -2752,13 +2752,13 @@
             <v>41671</v>
           </cell>
           <cell r="B54">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="C54">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E54">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="55">
@@ -2766,13 +2766,13 @@
             <v>41699</v>
           </cell>
           <cell r="B55">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="C55">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E55">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="56">
@@ -2780,13 +2780,13 @@
             <v>41730</v>
           </cell>
           <cell r="B56">
-            <v>57.998471504999998</v>
+            <v>58.109563917000003</v>
           </cell>
           <cell r="C56">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E56">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="57">
@@ -2794,13 +2794,13 @@
             <v>41760</v>
           </cell>
           <cell r="B57">
-            <v>58.388667114</v>
+            <v>58.500242866999997</v>
           </cell>
           <cell r="C57">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E57">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="58">
@@ -2808,13 +2808,13 @@
             <v>41791</v>
           </cell>
           <cell r="B58">
-            <v>56.853039623000001</v>
+            <v>56.956333358000002</v>
           </cell>
           <cell r="C58">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E58">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="59">
@@ -2822,13 +2822,13 @@
             <v>41821</v>
           </cell>
           <cell r="B59">
-            <v>57.844219471000002</v>
+            <v>57.947114095000003</v>
           </cell>
           <cell r="C59">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E59">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="60">
@@ -2836,13 +2836,13 @@
             <v>41852</v>
           </cell>
           <cell r="B60">
-            <v>58.461823013</v>
+            <v>58.569783803</v>
           </cell>
           <cell r="C60">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E60">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="61">
@@ -2850,13 +2850,13 @@
             <v>41883</v>
           </cell>
           <cell r="B61">
-            <v>58.107170345</v>
+            <v>58.211917546999999</v>
           </cell>
           <cell r="C61">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E61">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="62">
@@ -2864,13 +2864,13 @@
             <v>41913</v>
           </cell>
           <cell r="B62">
-            <v>58.703204956</v>
+            <v>58.809933411999999</v>
           </cell>
           <cell r="C62">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E62">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="63">
@@ -2878,13 +2878,13 @@
             <v>41944</v>
           </cell>
           <cell r="B63">
-            <v>56.954445775000003</v>
+            <v>57.055144063999997</v>
           </cell>
           <cell r="C63">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E63">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="64">
@@ -2892,13 +2892,13 @@
             <v>41974</v>
           </cell>
           <cell r="B64">
-            <v>58.717231517000002</v>
+            <v>58.861093695999998</v>
           </cell>
           <cell r="C64">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E64">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="65">
@@ -2906,13 +2906,13 @@
             <v>42005</v>
           </cell>
           <cell r="B65">
-            <v>56.771582940999998</v>
+            <v>56.889893022000003</v>
           </cell>
           <cell r="C65">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E65">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="66">
@@ -2920,13 +2920,13 @@
             <v>42036</v>
           </cell>
           <cell r="B66">
-            <v>58.679366041999998</v>
+            <v>58.816094106000001</v>
           </cell>
           <cell r="C66">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E66">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="67">
@@ -2934,13 +2934,13 @@
             <v>42064</v>
           </cell>
           <cell r="B67">
-            <v>60.321400116</v>
+            <v>60.475135344999998</v>
           </cell>
           <cell r="C67">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E67">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="68">
@@ -2948,13 +2948,13 @@
             <v>42095</v>
           </cell>
           <cell r="B68">
-            <v>62.770663919999997</v>
+            <v>62.874877918999999</v>
           </cell>
           <cell r="C68">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E68">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="69">
@@ -2962,13 +2962,13 @@
             <v>42125</v>
           </cell>
           <cell r="B69">
-            <v>61.649208901000002</v>
+            <v>61.759057009999999</v>
           </cell>
           <cell r="C69">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E69">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="70">
@@ -2976,13 +2976,13 @@
             <v>42156</v>
           </cell>
           <cell r="B70">
-            <v>60.648533321999999</v>
+            <v>60.744841897999997</v>
           </cell>
           <cell r="C70">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E70">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="71">
@@ -2990,13 +2990,13 @@
             <v>42186</v>
           </cell>
           <cell r="B71">
-            <v>61.180503836</v>
+            <v>61.273971907000004</v>
           </cell>
           <cell r="C71">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E71">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="72">
@@ -3004,13 +3004,13 @@
             <v>42217</v>
           </cell>
           <cell r="B72">
-            <v>62.688120238000003</v>
+            <v>62.751916825999999</v>
           </cell>
           <cell r="C72">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E72">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="73">
@@ -3018,13 +3018,13 @@
             <v>42248</v>
           </cell>
           <cell r="B73">
-            <v>63.459426278999999</v>
+            <v>63.565273560000001</v>
           </cell>
           <cell r="C73">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E73">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="74">
@@ -3032,13 +3032,13 @@
             <v>42278</v>
           </cell>
           <cell r="B74">
-            <v>64.251995704999999</v>
+            <v>64.349900727000005</v>
           </cell>
           <cell r="C74">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E74">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="75">
@@ -3046,13 +3046,13 @@
             <v>42309</v>
           </cell>
           <cell r="B75">
-            <v>62.348884826999999</v>
+            <v>62.439604031000002</v>
           </cell>
           <cell r="C75">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E75">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="76">
@@ -3060,13 +3060,13 @@
             <v>42339</v>
           </cell>
           <cell r="B76">
-            <v>65.153312955000004</v>
+            <v>65.327004078000002</v>
           </cell>
           <cell r="C76">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E76">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="77">
@@ -3074,13 +3074,13 @@
             <v>42370</v>
           </cell>
           <cell r="B77">
-            <v>62.995830982000001</v>
+            <v>63.152763313000001</v>
           </cell>
           <cell r="C77">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E77">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="78">
@@ -3088,13 +3088,13 @@
             <v>42401</v>
           </cell>
           <cell r="B78">
-            <v>63.824470308999999</v>
+            <v>63.978621891000003</v>
           </cell>
           <cell r="C78">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E78">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="79">
@@ -3102,13 +3102,13 @@
             <v>42430</v>
           </cell>
           <cell r="B79">
-            <v>64.861982514000005</v>
+            <v>65.008144266000002</v>
           </cell>
           <cell r="C79">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E79">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="80">
@@ -3116,13 +3116,13 @@
             <v>42461</v>
           </cell>
           <cell r="B80">
-            <v>66.161811608999997</v>
+            <v>66.309121586000003</v>
           </cell>
           <cell r="C80">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E80">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="81">
@@ -3130,13 +3130,13 @@
             <v>42491</v>
           </cell>
           <cell r="B81">
-            <v>65.156838578999995</v>
+            <v>65.291222095999998</v>
           </cell>
           <cell r="C81">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E81">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="82">
@@ -3144,13 +3144,13 @@
             <v>42522</v>
           </cell>
           <cell r="B82">
-            <v>65.101607729999998</v>
+            <v>65.255755480000005</v>
           </cell>
           <cell r="C82">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E82">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="83">
@@ -3158,13 +3158,13 @@
             <v>42552</v>
           </cell>
           <cell r="B83">
-            <v>64.321180014999996</v>
+            <v>64.391942274000002</v>
           </cell>
           <cell r="C83">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E83">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="84">
@@ -3172,13 +3172,13 @@
             <v>42583</v>
           </cell>
           <cell r="B84">
-            <v>65.215414945999996</v>
+            <v>64.941937855000006</v>
           </cell>
           <cell r="C84">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E84">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="85">
@@ -3186,13 +3186,13 @@
             <v>42614</v>
           </cell>
           <cell r="B85">
-            <v>65.529201756000006</v>
+            <v>65.609299547000006</v>
           </cell>
           <cell r="C85">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E85">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="86">
@@ -3200,13 +3200,13 @@
             <v>42644</v>
           </cell>
           <cell r="B86">
-            <v>65.627223635000007</v>
+            <v>65.531282837999996</v>
           </cell>
           <cell r="C86">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E86">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="87">
@@ -3214,13 +3214,13 @@
             <v>42675</v>
           </cell>
           <cell r="B87">
-            <v>65.730844121999993</v>
+            <v>65.890694847999995</v>
           </cell>
           <cell r="C87">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E87">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="88">
@@ -3228,13 +3228,13 @@
             <v>42705</v>
           </cell>
           <cell r="B88">
-            <v>66.317277899999993</v>
+            <v>66.841805539000006</v>
           </cell>
           <cell r="C88">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E88">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="89">
@@ -3242,13 +3242,13 @@
             <v>42736</v>
           </cell>
           <cell r="B89">
-            <v>65.321730157999994</v>
+            <v>65.038697618</v>
           </cell>
           <cell r="C89">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E89">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="90">
@@ -3256,13 +3256,13 @@
             <v>42767</v>
           </cell>
           <cell r="B90">
-            <v>65.800783005</v>
+            <v>65.304211633999998</v>
           </cell>
           <cell r="C90">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E90">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="91">
@@ -3270,13 +3270,13 @@
             <v>42795</v>
           </cell>
           <cell r="B91">
-            <v>67.048331809999993</v>
+            <v>66.437287592999994</v>
           </cell>
           <cell r="C91">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E91">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="92">
@@ -3284,13 +3284,13 @@
             <v>42826</v>
           </cell>
           <cell r="B92">
-            <v>68.108946708000005</v>
+            <v>67.317534686000002</v>
           </cell>
           <cell r="C92">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E92">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="93">
@@ -3298,13 +3298,13 @@
             <v>42856</v>
           </cell>
           <cell r="B93">
-            <v>66.884797376999998</v>
+            <v>65.983050982999998</v>
           </cell>
           <cell r="C93">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E93">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="94">
@@ -3312,13 +3312,13 @@
             <v>42887</v>
           </cell>
           <cell r="B94">
-            <v>66.448546984000004</v>
+            <v>65.392585119000003</v>
           </cell>
           <cell r="C94">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E94">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="95">
@@ -3326,13 +3326,13 @@
             <v>42917</v>
           </cell>
           <cell r="B95">
-            <v>66.461105879000002</v>
+            <v>65.393831363000004</v>
           </cell>
           <cell r="C95">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E95">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="96">
@@ -3340,13 +3340,13 @@
             <v>42948</v>
           </cell>
           <cell r="B96">
-            <v>65.677724832999999</v>
+            <v>64.690707630999995</v>
           </cell>
           <cell r="C96">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E96">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="97">
@@ -3354,13 +3354,13 @@
             <v>42979</v>
           </cell>
           <cell r="B97">
-            <v>66.438473578</v>
+            <v>65.441792352999997</v>
           </cell>
           <cell r="C97">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E97">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="98">
@@ -3368,13 +3368,13 @@
             <v>43009</v>
           </cell>
           <cell r="B98">
-            <v>66.210137884000005</v>
+            <v>65.146349158999996</v>
           </cell>
           <cell r="C98">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E98">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="99">
@@ -3382,13 +3382,13 @@
             <v>43040</v>
           </cell>
           <cell r="B99">
-            <v>65.683196073999994</v>
+            <v>64.597156538999997</v>
           </cell>
           <cell r="C99">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E99">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="100">
@@ -3396,13 +3396,13 @@
             <v>43070</v>
           </cell>
           <cell r="B100">
-            <v>66.446502983000002</v>
+            <v>65.414323115000002</v>
           </cell>
           <cell r="C100">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E100">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="101">
@@ -3410,13 +3410,13 @@
             <v>43101</v>
           </cell>
           <cell r="B101">
-            <v>65.538389031999998</v>
+            <v>64.236738763000005</v>
           </cell>
           <cell r="C101">
-            <v>54.663631402</v>
+            <v>54.764239498000002</v>
           </cell>
           <cell r="E101">
-            <v>8.332199580000001</v>
+            <v>8.3885238149999992</v>
           </cell>
         </row>
         <row r="102">
@@ -3424,13 +3424,13 @@
             <v>43132</v>
           </cell>
           <cell r="B102">
-            <v>66.088064861000007</v>
+            <v>64.780257489999997</v>
           </cell>
           <cell r="C102">
-            <v>56.202044712000003</v>
+            <v>56.301411954999999</v>
           </cell>
           <cell r="E102">
-            <v>7.6224255969999959</v>
+            <v>7.6772099360000041</v>
           </cell>
         </row>
         <row r="103">
@@ -3438,13 +3438,13 @@
             <v>43160</v>
           </cell>
           <cell r="B103">
-            <v>67.345070277000005</v>
+            <v>65.962352222000007</v>
           </cell>
           <cell r="C103">
-            <v>56.698923372000003</v>
+            <v>56.79769855</v>
           </cell>
           <cell r="E103">
-            <v>8.1630591420000016</v>
+            <v>8.2104457160000024</v>
           </cell>
         </row>
         <row r="104">
@@ -3452,13 +3452,13 @@
             <v>43191</v>
           </cell>
           <cell r="B104">
-            <v>68.432107907000002</v>
+            <v>67.133571700999994</v>
           </cell>
           <cell r="C104">
-            <v>57.998471504999998</v>
+            <v>58.027573347999997</v>
           </cell>
           <cell r="E104">
-            <v>8.1633401039999995</v>
+            <v>8.2815482380000063</v>
           </cell>
         </row>
         <row r="105">
@@ -3466,13 +3466,13 @@
             <v>43221</v>
           </cell>
           <cell r="B105">
-            <v>67.172382302000003</v>
+            <v>65.994690422000005</v>
           </cell>
           <cell r="C105">
-            <v>57.861926707000002</v>
+            <v>57.848895212999999</v>
           </cell>
           <cell r="E105">
-            <v>7.294911871999993</v>
+            <v>7.4423268829999998</v>
           </cell>
         </row>
         <row r="106">
@@ -3480,13 +3480,13 @@
             <v>43252</v>
           </cell>
           <cell r="B106">
-            <v>66.870846361000005</v>
+            <v>65.692663107000001</v>
           </cell>
           <cell r="C106">
-            <v>56.232392965000003</v>
+            <v>56.218362913999997</v>
           </cell>
           <cell r="E106">
-            <v>8.8692147649999953</v>
+            <v>9.0373925660000083</v>
           </cell>
         </row>
         <row r="107">
@@ -3494,13 +3494,13 @@
             <v>43282</v>
           </cell>
           <cell r="B107">
-            <v>66.843834170999997</v>
+            <v>65.770206099000006</v>
           </cell>
           <cell r="C107">
-            <v>57.14811486</v>
+            <v>57.132714411000002</v>
           </cell>
           <cell r="E107">
-            <v>7.1730651549999962</v>
+            <v>7.2592278629999996</v>
           </cell>
         </row>
         <row r="108">
@@ -3508,13 +3508,13 @@
             <v>43313</v>
           </cell>
           <cell r="B108">
-            <v>66.122215455000003</v>
+            <v>65.205040522000004</v>
           </cell>
           <cell r="C108">
-            <v>57.615733198000001</v>
+            <v>57.606513771000003</v>
           </cell>
           <cell r="E108">
-            <v>7.5996817479999947</v>
+            <v>7.3354240840000031</v>
           </cell>
         </row>
         <row r="109">
@@ -3522,13 +3522,13 @@
             <v>43344</v>
           </cell>
           <cell r="B109">
-            <v>66.766380544</v>
+            <v>65.964337286000003</v>
           </cell>
           <cell r="C109">
-            <v>57.525133373000003</v>
+            <v>57.511781839000001</v>
           </cell>
           <cell r="E109">
-            <v>8.0040683830000035</v>
+            <v>8.0975177080000051</v>
           </cell>
         </row>
         <row r="110">
@@ -3536,13 +3536,13 @@
             <v>43374</v>
           </cell>
           <cell r="B110">
-            <v>66.529702036000003</v>
+            <v>65.717863774999998</v>
           </cell>
           <cell r="C110">
-            <v>56.031841178999997</v>
+            <v>56.023523277999999</v>
           </cell>
           <cell r="E110">
-            <v>9.5953824560000101</v>
+            <v>9.5077595599999967</v>
           </cell>
         </row>
         <row r="111">
@@ -3550,13 +3550,13 @@
             <v>43405</v>
           </cell>
           <cell r="B111">
-            <v>65.860600720999997</v>
+            <v>65.052524863000002</v>
           </cell>
           <cell r="C111">
-            <v>55.884629064999999</v>
+            <v>55.874523170000003</v>
           </cell>
           <cell r="E111">
-            <v>9.8462150569999949</v>
+            <v>10.016171677999992</v>
           </cell>
         </row>
         <row r="112">
@@ -3564,13 +3564,13 @@
             <v>43435</v>
           </cell>
           <cell r="B112">
-            <v>66.623907630000005</v>
+            <v>65.869691438999993</v>
           </cell>
           <cell r="C112">
-            <v>55.707364748000003</v>
+            <v>55.817292010999999</v>
           </cell>
           <cell r="E112">
-            <v>10.60991315199999</v>
+            <v>11.024513528000007</v>
           </cell>
         </row>
         <row r="116">
@@ -3580,7 +3580,7 @@
         </row>
         <row r="117">
           <cell r="A117">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B117">
             <v>0</v>
@@ -3588,7 +3588,7 @@
         </row>
         <row r="118">
           <cell r="A118">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="B118">
             <v>1</v>
@@ -3949,19 +3949,19 @@
         <v>40909</v>
       </c>
       <c r="B29" s="13">
-        <v>55.423987791000002</v>
+        <v>55.420405416000001</v>
       </c>
       <c r="C29" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D29" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" ref="E29:E92" si="0">D29-C29</f>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -3971,19 +3971,19 @@
         <v>40940</v>
       </c>
       <c r="B30" s="13">
-        <v>57.32778682</v>
+        <v>57.321964461</v>
       </c>
       <c r="C30" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D30" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
@@ -3993,19 +3993,19 @@
         <v>40969</v>
       </c>
       <c r="B31" s="13">
-        <v>58.736331839999998</v>
+        <v>58.732665623999999</v>
       </c>
       <c r="C31" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D31" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
@@ -4015,19 +4015,19 @@
         <v>41000</v>
       </c>
       <c r="B32" s="13">
-        <v>58.300099748999997</v>
+        <v>58.300678214000001</v>
       </c>
       <c r="C32" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D32" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -4037,19 +4037,19 @@
         <v>41030</v>
       </c>
       <c r="B33" s="13">
-        <v>57.963218824999998</v>
+        <v>57.958017028</v>
       </c>
       <c r="C33" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D33" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
@@ -4059,19 +4059,19 @@
         <v>41061</v>
       </c>
       <c r="B34" s="13">
-        <v>58.027716251999998</v>
+        <v>58.020602036</v>
       </c>
       <c r="C34" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D34" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -4081,19 +4081,19 @@
         <v>41091</v>
       </c>
       <c r="B35" s="13">
-        <v>57.816031787999997</v>
+        <v>57.809475139</v>
       </c>
       <c r="C35" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D35" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -4103,19 +4103,19 @@
         <v>41122</v>
       </c>
       <c r="B36" s="13">
-        <v>59.795496497000002</v>
+        <v>59.787912444</v>
       </c>
       <c r="C36" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D36" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -4125,19 +4125,19 @@
         <v>41153</v>
       </c>
       <c r="B37" s="13">
-        <v>58.277416475999999</v>
+        <v>58.270593492000003</v>
       </c>
       <c r="C37" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D37" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -4147,19 +4147,19 @@
         <v>41183</v>
       </c>
       <c r="B38" s="13">
-        <v>57.486884387000003</v>
+        <v>57.480771902000001</v>
       </c>
       <c r="C38" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D38" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
@@ -4169,19 +4169,19 @@
         <v>41214</v>
       </c>
       <c r="B39" s="13">
-        <v>58.014264038</v>
+        <v>58.008782185000001</v>
       </c>
       <c r="C39" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D39" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E39" s="15">
         <f t="shared" si="0"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
@@ -4191,19 +4191,19 @@
         <v>41244</v>
       </c>
       <c r="B40" s="13">
-        <v>57.582879443000003</v>
+        <v>57.577133644</v>
       </c>
       <c r="C40" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D40" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E40" s="15">
         <f t="shared" si="0"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
@@ -4213,19 +4213,19 @@
         <v>41275</v>
       </c>
       <c r="B41" s="13">
-        <v>56.879203527999998</v>
+        <v>56.873122477999999</v>
       </c>
       <c r="C41" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D41" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E41" s="15">
         <f t="shared" si="0"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
@@ -4235,19 +4235,19 @@
         <v>41306</v>
       </c>
       <c r="B42" s="13">
-        <v>58.115561388000003</v>
+        <v>58.101152697000003</v>
       </c>
       <c r="C42" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D42" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E42" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
@@ -4257,19 +4257,19 @@
         <v>41334</v>
       </c>
       <c r="B43" s="13">
-        <v>57.464447479</v>
+        <v>57.448209898999998</v>
       </c>
       <c r="C43" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D43" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E43" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
@@ -4279,19 +4279,19 @@
         <v>41365</v>
       </c>
       <c r="B44" s="13">
-        <v>58.038477231999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="C44" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D44" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E44" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
@@ -4301,19 +4301,19 @@
         <v>41395</v>
       </c>
       <c r="B45" s="13">
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="C45" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D45" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="0"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
@@ -4323,19 +4323,19 @@
         <v>41426</v>
       </c>
       <c r="B46" s="13">
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="C46" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D46" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="0"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
@@ -4345,19 +4345,19 @@
         <v>41456</v>
       </c>
       <c r="B47" s="13">
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="C47" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D47" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="0"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
@@ -4367,19 +4367,19 @@
         <v>41487</v>
       </c>
       <c r="B48" s="13">
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="C48" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D48" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="0"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
@@ -4389,19 +4389,19 @@
         <v>41518</v>
       </c>
       <c r="B49" s="13">
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="C49" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D49" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E49" s="15">
         <f t="shared" si="0"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
@@ -4411,19 +4411,19 @@
         <v>41548</v>
       </c>
       <c r="B50" s="13">
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="C50" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D50" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E50" s="15">
         <f t="shared" si="0"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="15"/>
@@ -4433,19 +4433,19 @@
         <v>41579</v>
       </c>
       <c r="B51" s="13">
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="C51" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D51" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E51" s="15">
         <f t="shared" si="0"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
@@ -4455,19 +4455,19 @@
         <v>41609</v>
       </c>
       <c r="B52" s="13">
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="C52" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D52" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E52" s="15">
         <f t="shared" si="0"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
@@ -4477,19 +4477,19 @@
         <v>41640</v>
       </c>
       <c r="B53" s="13">
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="C53" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D53" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E53" s="15">
         <f t="shared" si="0"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="15"/>
@@ -4499,19 +4499,19 @@
         <v>41671</v>
       </c>
       <c r="B54" s="13">
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="C54" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D54" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="15"/>
@@ -4521,19 +4521,19 @@
         <v>41699</v>
       </c>
       <c r="B55" s="13">
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="C55" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D55" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="15"/>
@@ -4543,19 +4543,19 @@
         <v>41730</v>
       </c>
       <c r="B56" s="13">
-        <v>57.998471504999998</v>
+        <v>58.109563917000003</v>
       </c>
       <c r="C56" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D56" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E56" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
@@ -4565,19 +4565,19 @@
         <v>41760</v>
       </c>
       <c r="B57" s="13">
-        <v>58.388667114</v>
+        <v>58.500242866999997</v>
       </c>
       <c r="C57" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D57" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="0"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
@@ -4587,19 +4587,19 @@
         <v>41791</v>
       </c>
       <c r="B58" s="13">
-        <v>56.853039623000001</v>
+        <v>56.956333358000002</v>
       </c>
       <c r="C58" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D58" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E58" s="15">
         <f t="shared" si="0"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="15"/>
@@ -4609,19 +4609,19 @@
         <v>41821</v>
       </c>
       <c r="B59" s="13">
-        <v>57.844219471000002</v>
+        <v>57.947114095000003</v>
       </c>
       <c r="C59" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D59" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E59" s="15">
         <f t="shared" si="0"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="15"/>
@@ -4631,19 +4631,19 @@
         <v>41852</v>
       </c>
       <c r="B60" s="13">
-        <v>58.461823013</v>
+        <v>58.569783803</v>
       </c>
       <c r="C60" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D60" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E60" s="15">
         <f t="shared" si="0"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
@@ -4653,19 +4653,19 @@
         <v>41883</v>
       </c>
       <c r="B61" s="13">
-        <v>58.107170345</v>
+        <v>58.211917546999999</v>
       </c>
       <c r="C61" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D61" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E61" s="15">
         <f t="shared" si="0"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="15"/>
@@ -4675,19 +4675,19 @@
         <v>41913</v>
       </c>
       <c r="B62" s="13">
-        <v>58.703204956</v>
+        <v>58.809933411999999</v>
       </c>
       <c r="C62" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D62" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E62" s="15">
         <f t="shared" si="0"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="15"/>
@@ -4697,19 +4697,19 @@
         <v>41944</v>
       </c>
       <c r="B63" s="13">
-        <v>56.954445775000003</v>
+        <v>57.055144063999997</v>
       </c>
       <c r="C63" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D63" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E63" s="15">
         <f t="shared" si="0"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
@@ -4719,19 +4719,19 @@
         <v>41974</v>
       </c>
       <c r="B64" s="13">
-        <v>58.717231517000002</v>
+        <v>58.861093695999998</v>
       </c>
       <c r="C64" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D64" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E64" s="15">
         <f t="shared" si="0"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="15"/>
@@ -4741,19 +4741,19 @@
         <v>42005</v>
       </c>
       <c r="B65" s="13">
-        <v>56.771582940999998</v>
+        <v>56.889893022000003</v>
       </c>
       <c r="C65" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D65" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E65" s="15">
         <f t="shared" si="0"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="15"/>
@@ -4763,19 +4763,19 @@
         <v>42036</v>
       </c>
       <c r="B66" s="13">
-        <v>58.679366041999998</v>
+        <v>58.816094106000001</v>
       </c>
       <c r="C66" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D66" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E66" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="15"/>
@@ -4785,19 +4785,19 @@
         <v>42064</v>
       </c>
       <c r="B67" s="13">
-        <v>60.321400116</v>
+        <v>60.475135344999998</v>
       </c>
       <c r="C67" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D67" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E67" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
@@ -4807,19 +4807,19 @@
         <v>42095</v>
       </c>
       <c r="B68" s="13">
-        <v>62.770663919999997</v>
+        <v>62.874877918999999</v>
       </c>
       <c r="C68" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D68" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E68" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="15"/>
@@ -4829,19 +4829,19 @@
         <v>42125</v>
       </c>
       <c r="B69" s="13">
-        <v>61.649208901000002</v>
+        <v>61.759057009999999</v>
       </c>
       <c r="C69" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D69" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E69" s="15">
         <f t="shared" si="0"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="15"/>
@@ -4851,19 +4851,19 @@
         <v>42156</v>
       </c>
       <c r="B70" s="13">
-        <v>60.648533321999999</v>
+        <v>60.744841897999997</v>
       </c>
       <c r="C70" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D70" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E70" s="15">
         <f t="shared" si="0"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="15"/>
@@ -4873,19 +4873,19 @@
         <v>42186</v>
       </c>
       <c r="B71" s="13">
-        <v>61.180503836</v>
+        <v>61.273971907000004</v>
       </c>
       <c r="C71" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D71" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E71" s="15">
         <f t="shared" si="0"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="15"/>
@@ -4895,19 +4895,19 @@
         <v>42217</v>
       </c>
       <c r="B72" s="13">
-        <v>62.688120238000003</v>
+        <v>62.751916825999999</v>
       </c>
       <c r="C72" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D72" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E72" s="15">
         <f t="shared" si="0"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
@@ -4917,19 +4917,19 @@
         <v>42248</v>
       </c>
       <c r="B73" s="13">
-        <v>63.459426278999999</v>
+        <v>63.565273560000001</v>
       </c>
       <c r="C73" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D73" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E73" s="15">
         <f t="shared" si="0"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="15"/>
@@ -4939,19 +4939,19 @@
         <v>42278</v>
       </c>
       <c r="B74" s="13">
-        <v>64.251995704999999</v>
+        <v>64.349900727000005</v>
       </c>
       <c r="C74" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D74" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E74" s="15">
         <f t="shared" si="0"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="15"/>
@@ -4961,19 +4961,19 @@
         <v>42309</v>
       </c>
       <c r="B75" s="13">
-        <v>62.348884826999999</v>
+        <v>62.439604031000002</v>
       </c>
       <c r="C75" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D75" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E75" s="15">
         <f t="shared" si="0"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="15"/>
@@ -4983,19 +4983,19 @@
         <v>42339</v>
       </c>
       <c r="B76" s="13">
-        <v>65.153312955000004</v>
+        <v>65.327004078000002</v>
       </c>
       <c r="C76" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D76" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E76" s="15">
         <f t="shared" si="0"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="15"/>
@@ -5005,19 +5005,19 @@
         <v>42370</v>
       </c>
       <c r="B77" s="13">
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="C77" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D77" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E77" s="15">
         <f t="shared" si="0"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="15"/>
@@ -5027,19 +5027,19 @@
         <v>42401</v>
       </c>
       <c r="B78" s="13">
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="C78" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D78" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E78" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
@@ -5049,19 +5049,19 @@
         <v>42430</v>
       </c>
       <c r="B79" s="13">
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="C79" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D79" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E79" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
@@ -5071,19 +5071,19 @@
         <v>42461</v>
       </c>
       <c r="B80" s="13">
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="C80" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D80" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E80" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
@@ -5093,19 +5093,19 @@
         <v>42491</v>
       </c>
       <c r="B81" s="13">
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="C81" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D81" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E81" s="15">
         <f t="shared" si="0"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="15"/>
@@ -5115,19 +5115,19 @@
         <v>42522</v>
       </c>
       <c r="B82" s="13">
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="C82" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D82" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E82" s="15">
         <f t="shared" si="0"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="15"/>
@@ -5137,19 +5137,19 @@
         <v>42552</v>
       </c>
       <c r="B83" s="13">
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="C83" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D83" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E83" s="15">
         <f t="shared" si="0"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="15"/>
@@ -5159,19 +5159,19 @@
         <v>42583</v>
       </c>
       <c r="B84" s="13">
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="C84" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D84" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E84" s="15">
         <f t="shared" si="0"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="15"/>
@@ -5181,19 +5181,19 @@
         <v>42614</v>
       </c>
       <c r="B85" s="13">
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="C85" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D85" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E85" s="15">
         <f t="shared" si="0"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="15"/>
@@ -5203,19 +5203,19 @@
         <v>42644</v>
       </c>
       <c r="B86" s="13">
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="C86" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D86" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E86" s="15">
         <f t="shared" si="0"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="15"/>
@@ -5225,19 +5225,19 @@
         <v>42675</v>
       </c>
       <c r="B87" s="13">
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="C87" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D87" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E87" s="15">
         <f t="shared" si="0"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
@@ -5247,19 +5247,19 @@
         <v>42705</v>
       </c>
       <c r="B88" s="13">
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="C88" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D88" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E88" s="15">
         <f t="shared" si="0"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
@@ -5269,19 +5269,19 @@
         <v>42736</v>
       </c>
       <c r="B89" s="13">
-        <v>65.321730157999994</v>
+        <v>65.038697618</v>
       </c>
       <c r="C89" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D89" s="14">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E89" s="15">
         <f t="shared" si="0"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
@@ -5291,19 +5291,19 @@
         <v>42767</v>
       </c>
       <c r="B90" s="13">
-        <v>65.800783005</v>
+        <v>65.304211633999998</v>
       </c>
       <c r="C90" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D90" s="14">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E90" s="15">
         <f t="shared" si="0"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="15"/>
@@ -5313,19 +5313,19 @@
         <v>42795</v>
       </c>
       <c r="B91" s="13">
-        <v>67.048331809999993</v>
+        <v>66.437287592999994</v>
       </c>
       <c r="C91" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D91" s="14">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E91" s="15">
         <f t="shared" si="0"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
@@ -5335,19 +5335,19 @@
         <v>42826</v>
       </c>
       <c r="B92" s="13">
-        <v>68.108946708000005</v>
+        <v>67.317534686000002</v>
       </c>
       <c r="C92" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D92" s="14">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E92" s="15">
         <f t="shared" si="0"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
@@ -5357,19 +5357,19 @@
         <v>42856</v>
       </c>
       <c r="B93" s="13">
-        <v>66.884797376999998</v>
+        <v>65.983050982999998</v>
       </c>
       <c r="C93" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D93" s="14">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E93" s="15">
         <f t="shared" ref="E93:E112" si="1">D93-C93</f>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
@@ -5379,19 +5379,19 @@
         <v>42887</v>
       </c>
       <c r="B94" s="13">
-        <v>66.448546984000004</v>
+        <v>65.392585119000003</v>
       </c>
       <c r="C94" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D94" s="14">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E94" s="15">
         <f t="shared" si="1"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
@@ -5401,19 +5401,19 @@
         <v>42917</v>
       </c>
       <c r="B95" s="13">
-        <v>66.461105879000002</v>
+        <v>65.393831363000004</v>
       </c>
       <c r="C95" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D95" s="14">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E95" s="15">
         <f t="shared" si="1"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
@@ -5423,19 +5423,19 @@
         <v>42948</v>
       </c>
       <c r="B96" s="13">
-        <v>65.677724832999999</v>
+        <v>64.690707630999995</v>
       </c>
       <c r="C96" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D96" s="14">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E96" s="15">
         <f t="shared" si="1"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
@@ -5445,19 +5445,19 @@
         <v>42979</v>
       </c>
       <c r="B97" s="13">
-        <v>66.438473578</v>
+        <v>65.441792352999997</v>
       </c>
       <c r="C97" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D97" s="14">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E97" s="15">
         <f t="shared" si="1"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="15"/>
@@ -5467,19 +5467,19 @@
         <v>43009</v>
       </c>
       <c r="B98" s="13">
-        <v>66.210137884000005</v>
+        <v>65.146349158999996</v>
       </c>
       <c r="C98" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D98" s="14">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E98" s="15">
         <f t="shared" si="1"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G98" s="14"/>
       <c r="H98" s="15"/>
@@ -5489,19 +5489,19 @@
         <v>43040</v>
       </c>
       <c r="B99" s="13">
-        <v>65.683196073999994</v>
+        <v>64.597156538999997</v>
       </c>
       <c r="C99" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D99" s="14">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E99" s="15">
         <f t="shared" si="1"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="15"/>
@@ -5511,19 +5511,19 @@
         <v>43070</v>
       </c>
       <c r="B100" s="13">
-        <v>66.446502983000002</v>
+        <v>65.414323115000002</v>
       </c>
       <c r="C100" s="14">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D100" s="14">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E100" s="15">
         <f t="shared" si="1"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
@@ -5533,19 +5533,19 @@
         <v>43101</v>
       </c>
       <c r="B101" s="13">
-        <v>65.538389031999998</v>
+        <v>64.236738763000005</v>
       </c>
       <c r="C101" s="14">
         <f>+MIN($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>54.663631402</v>
+        <v>54.764239498000002</v>
       </c>
       <c r="D101" s="15">
         <f>+MAX($B$29,$B$41,$B$53,$B$65,$B$77)</f>
-        <v>62.995830982000001</v>
+        <v>63.152763313000001</v>
       </c>
       <c r="E101" s="15">
         <f t="shared" si="1"/>
-        <v>8.332199580000001</v>
+        <v>8.3885238149999992</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="15"/>
@@ -5555,19 +5555,19 @@
         <v>43132</v>
       </c>
       <c r="B102" s="13">
-        <v>66.088064861000007</v>
+        <v>64.780257489999997</v>
       </c>
       <c r="C102" s="14">
         <f>+MIN($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>56.202044712000003</v>
+        <v>56.301411954999999</v>
       </c>
       <c r="D102" s="15">
         <f>+MAX($B$30,$B$42,$B$54,$B$66,$B$78)</f>
-        <v>63.824470308999999</v>
+        <v>63.978621891000003</v>
       </c>
       <c r="E102" s="15">
         <f t="shared" si="1"/>
-        <v>7.6224255969999959</v>
+        <v>7.6772099360000041</v>
       </c>
       <c r="G102" s="14"/>
       <c r="H102" s="15"/>
@@ -5577,19 +5577,19 @@
         <v>43160</v>
       </c>
       <c r="B103" s="13">
-        <v>67.345070277000005</v>
+        <v>65.962352222000007</v>
       </c>
       <c r="C103" s="14">
         <f>+MIN($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>56.698923372000003</v>
+        <v>56.79769855</v>
       </c>
       <c r="D103" s="15">
         <f>+MAX($B$31,$B$43,$B$55,$B$67,$B$79)</f>
-        <v>64.861982514000005</v>
+        <v>65.008144266000002</v>
       </c>
       <c r="E103" s="15">
         <f t="shared" si="1"/>
-        <v>8.1630591420000016</v>
+        <v>8.2104457160000024</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="15"/>
@@ -5599,19 +5599,19 @@
         <v>43191</v>
       </c>
       <c r="B104" s="13">
-        <v>68.432107907000002</v>
+        <v>67.133571700999994</v>
       </c>
       <c r="C104" s="14">
         <f>+MIN($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>57.998471504999998</v>
+        <v>58.027573347999997</v>
       </c>
       <c r="D104" s="15">
         <f>+MAX($B$32,$B$44,$B$56,$B$68,$B$80)</f>
-        <v>66.161811608999997</v>
+        <v>66.309121586000003</v>
       </c>
       <c r="E104" s="15">
         <f t="shared" si="1"/>
-        <v>8.1633401039999995</v>
+        <v>8.2815482380000063</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="15"/>
@@ -5621,19 +5621,19 @@
         <v>43221</v>
       </c>
       <c r="B105" s="13">
-        <v>67.172382302000003</v>
+        <v>65.994690422000005</v>
       </c>
       <c r="C105" s="14">
         <f>+MIN($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>57.861926707000002</v>
+        <v>57.848895212999999</v>
       </c>
       <c r="D105" s="15">
         <f>+MAX($B$33,$B$45,$B$57,$B$69,$B$81)</f>
-        <v>65.156838578999995</v>
+        <v>65.291222095999998</v>
       </c>
       <c r="E105" s="15">
         <f t="shared" si="1"/>
-        <v>7.294911871999993</v>
+        <v>7.4423268829999998</v>
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="15"/>
@@ -5643,19 +5643,19 @@
         <v>43252</v>
       </c>
       <c r="B106" s="13">
-        <v>66.870846361000005</v>
+        <v>65.692663107000001</v>
       </c>
       <c r="C106" s="14">
         <f>+MIN($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>56.232392965000003</v>
+        <v>56.218362913999997</v>
       </c>
       <c r="D106" s="15">
         <f>+MAX($B$34,$B$46,$B$58,$B$70,$B$82)</f>
-        <v>65.101607729999998</v>
+        <v>65.255755480000005</v>
       </c>
       <c r="E106" s="15">
         <f t="shared" si="1"/>
-        <v>8.8692147649999953</v>
+        <v>9.0373925660000083</v>
       </c>
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
@@ -5665,19 +5665,19 @@
         <v>43282</v>
       </c>
       <c r="B107" s="13">
-        <v>66.843834170999997</v>
+        <v>65.770206099000006</v>
       </c>
       <c r="C107" s="14">
         <f>+MIN($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>57.14811486</v>
+        <v>57.132714411000002</v>
       </c>
       <c r="D107" s="15">
         <f>+MAX($B$35,$B$47,$B$59,$B$71,$B$83)</f>
-        <v>64.321180014999996</v>
+        <v>64.391942274000002</v>
       </c>
       <c r="E107" s="15">
         <f t="shared" si="1"/>
-        <v>7.1730651549999962</v>
+        <v>7.2592278629999996</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="15"/>
@@ -5687,19 +5687,19 @@
         <v>43313</v>
       </c>
       <c r="B108" s="13">
-        <v>66.122215455000003</v>
+        <v>65.205040522000004</v>
       </c>
       <c r="C108" s="14">
         <f>+MIN($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>57.615733198000001</v>
+        <v>57.606513771000003</v>
       </c>
       <c r="D108" s="15">
         <f>+MAX($B$36,$B$48,$B$60,$B$72,$B$84)</f>
-        <v>65.215414945999996</v>
+        <v>64.941937855000006</v>
       </c>
       <c r="E108" s="15">
         <f t="shared" si="1"/>
-        <v>7.5996817479999947</v>
+        <v>7.3354240840000031</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="15"/>
@@ -5709,19 +5709,19 @@
         <v>43344</v>
       </c>
       <c r="B109" s="13">
-        <v>66.766380544</v>
+        <v>65.964337286000003</v>
       </c>
       <c r="C109" s="14">
         <f>+MIN($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>57.525133373000003</v>
+        <v>57.511781839000001</v>
       </c>
       <c r="D109" s="15">
         <f>+MAX($B$37,$B$49,$B$61,$B$73,$B$85)</f>
-        <v>65.529201756000006</v>
+        <v>65.609299547000006</v>
       </c>
       <c r="E109" s="15">
         <f t="shared" si="1"/>
-        <v>8.0040683830000035</v>
+        <v>8.0975177080000051</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="15"/>
@@ -5731,19 +5731,19 @@
         <v>43374</v>
       </c>
       <c r="B110" s="13">
-        <v>66.529702036000003</v>
+        <v>65.717863774999998</v>
       </c>
       <c r="C110" s="14">
         <f>+MIN($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>56.031841178999997</v>
+        <v>56.023523277999999</v>
       </c>
       <c r="D110" s="15">
         <f>+MAX($B$38,$B$50,$B$62,$B$74,$B$86)</f>
-        <v>65.627223635000007</v>
+        <v>65.531282837999996</v>
       </c>
       <c r="E110" s="15">
         <f t="shared" si="1"/>
-        <v>9.5953824560000101</v>
+        <v>9.5077595599999967</v>
       </c>
       <c r="G110" s="14"/>
       <c r="H110" s="15"/>
@@ -5753,19 +5753,19 @@
         <v>43405</v>
       </c>
       <c r="B111" s="13">
-        <v>65.860600720999997</v>
+        <v>65.052524863000002</v>
       </c>
       <c r="C111" s="14">
         <f>+MIN($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>55.884629064999999</v>
+        <v>55.874523170000003</v>
       </c>
       <c r="D111" s="15">
         <f>+MAX($B$39,$B$51,$B$63,$B$75,$B$87)</f>
-        <v>65.730844121999993</v>
+        <v>65.890694847999995</v>
       </c>
       <c r="E111" s="15">
         <f t="shared" si="1"/>
-        <v>9.8462150569999949</v>
+        <v>10.016171677999992</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="15"/>
@@ -5775,19 +5775,19 @@
         <v>43435</v>
       </c>
       <c r="B112" s="17">
-        <v>66.623907630000005</v>
+        <v>65.869691438999993</v>
       </c>
       <c r="C112" s="18">
         <f>+MIN($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>55.707364748000003</v>
+        <v>55.817292010999999</v>
       </c>
       <c r="D112" s="19">
         <f>+MAX($B$40,$B$52,$B$64,$B$76,$B$88)</f>
-        <v>66.317277899999993</v>
+        <v>66.841805539000006</v>
       </c>
       <c r="E112" s="19">
         <f t="shared" si="1"/>
-        <v>10.60991315199999</v>
+        <v>11.024513528000007</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="15"/>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
